--- a/bots/crawl_ch/output/vegi_coop_2023-01-20.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-20.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
         <v>3.5</v>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
         <v>4.5</v>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
         <v>4.5</v>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>4.5</v>
@@ -2747,7 +2747,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
         <v>4.5</v>
@@ -2816,7 +2816,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2885,7 +2885,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="n">
         <v>4.5</v>
@@ -3023,7 +3023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" t="n">
         <v>4.5</v>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E58" t="n">
         <v>4.5</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
         <v>4.5</v>
@@ -5337,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5471,7 +5471,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -5857,7 +5857,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E93" t="n">
         <v>4.5</v>
@@ -6710,7 +6710,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
         <v>4.5</v>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7478,7 +7478,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E105" t="n">
         <v>4.5</v>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -7733,45 +7733,41 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6495966</t>
+          <t>3091051</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Prix Garantie Knollensellerie ca. 800g</t>
+          <t>Peperoncini rot ca. 50g</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/prix-garantie-knollensellerie-ca/p/6495966</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/peperoncini-rot-ca/p/3091051</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E109" t="n">
         <v>4.5</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.27/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7781,7 +7777,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7791,152 +7787,156 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Prix Garantie Knollensellerie ca. 800g 2.15 Schweizer Franken</t>
+          <t>Peperoncini rot ca. 50g 0.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3091051</t>
+          <t>5930088</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Peperoncini rot ca. 50g</t>
+          <t>Fairtrade Primagusto Mango 1 Stück</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/peperoncini-rot-ca/p/3091051</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/fairtrade-primagusto-mango-1-stueck/p/5930088</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E110" t="n">
         <v>4.5</v>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Primagusto</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Peperoncini rot ca. 50g 0.65 Schweizer Franken</t>
+          <t>Fairtrade Primagusto Mango 1 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5930088</t>
+          <t>6495966</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fairtrade Primagusto Mango 1 Stück</t>
+          <t>Prix Garantie Knollensellerie ca. 800g</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/fairtrade-primagusto-mango-1-stueck/p/5930088</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/prix-garantie-knollensellerie-ca/p/6495966</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
         <v>4.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>0.27/100g</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Fairtrade Primagusto Mango 1 Stück 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Knollensellerie ca. 800g 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -8976,10 +8976,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E129" t="n">
         <v>3.5</v>
@@ -9166,7 +9166,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
         <v>4.5</v>
@@ -9235,7 +9235,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" t="n">
         <v>4.5</v>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
         <v>3.5</v>
@@ -9783,7 +9783,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9804,10 +9804,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E140" t="n">
         <v>3.5</v>
@@ -9921,7 +9921,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10729,7 +10729,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E160" t="n">
         <v>4.5</v>
@@ -11283,7 +11283,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12024,7 +12024,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12162,7 +12162,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12231,7 +12231,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12300,7 +12300,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>4.5</v>
@@ -12369,7 +12369,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -12722,7 +12722,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -12988,7 +12988,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13126,7 +13126,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13195,7 +13195,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13289,7 +13289,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E190" t="n">
         <v>4.5</v>
@@ -13337,7 +13337,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13402,7 +13402,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13553,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E194" t="n">
         <v>3.5</v>
@@ -13597,7 +13597,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -13928,7 +13928,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -13997,7 +13997,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14018,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E201" t="n">
         <v>4.5</v>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14139,7 +14139,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14204,7 +14204,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14683,7 +14683,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14773,10 +14773,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E212" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -14911,7 +14911,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E214" t="n">
         <v>4.5</v>
@@ -14959,7 +14959,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15562,7 +15562,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15627,7 +15627,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15830,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15968,7 +15968,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16037,7 +16037,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16058,7 +16058,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E231" t="n">
         <v>4.5</v>
@@ -16106,7 +16106,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16192,10 +16192,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E238" t="n">
         <v>4.5</v>
@@ -16589,7 +16589,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16782,7 +16782,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16924,7 +16924,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E244" t="n">
         <v>4.5</v>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17087,7 +17087,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E246" t="n">
         <v>4.5</v>
@@ -17135,7 +17135,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17419,7 +17419,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17971,7 +17971,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -17992,10 +17992,10 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E259" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18320,7 +18320,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18531,7 +18531,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18596,7 +18596,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19022,7 +19022,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19107,12 +19107,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>IP-Suisse Äpfel Kissabel rot 1kg</t>
+          <t>Äpfel Kissabel rot IP-Suisse 1kg</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/ip-suisse-aepfel-kissabel-rot/p/7073678</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-kissabel-rot-ip-suisse/p/7073678</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -19154,13 +19154,13 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>IP-Suisse Äpfel Kissabel rot 1kg 4.95 Schweizer Franken</t>
+          <t>Äpfel Kissabel rot IP-Suisse 1kg 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19294,7 +19294,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E278" t="n">
         <v>2.5</v>
@@ -19363,7 +19363,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19716,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19846,7 +19846,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -19984,7 +19984,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20122,7 +20122,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E290" t="n">
         <v>4.5</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20264,7 +20264,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20285,7 +20285,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E292" t="n">
         <v>4.5</v>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20358,7 +20358,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20479,7 +20479,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20552,31 +20552,31 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6614350</t>
+          <t>4416360</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarische Schnitzel</t>
+          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/prix-garantie-vegetarische-schnitzel/p/6614350</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/naturaplan-bio-blumenkohl-mix-farbig-4-stueck/p/4416360</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E296" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -20585,71 +20585,67 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>7.95/1ST</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarische Schnitzel 2.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück 7.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>4416360</t>
+          <t>6614350</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück</t>
+          <t>Prix Garantie vegetarische Schnitzel</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/naturaplan-bio-blumenkohl-mix-farbig-4-stueck/p/4416360</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/prix-garantie-vegetarische-schnitzel/p/6614350</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E297" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -20658,43 +20654,47 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>7.95/1ST</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N297" t="inlineStr"/>
+          <t>Prix Garantie vegetarische Schnitzel 2.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20741,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21084,7 +21084,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21105,7 +21105,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E304" t="n">
         <v>4.5</v>
@@ -21153,7 +21153,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21218,7 +21218,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21510,7 +21510,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21654,7 +21654,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21721,7 +21721,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21790,7 +21790,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -21884,7 +21884,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22001,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22123,7 +22123,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22186,7 +22186,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22280,7 +22280,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E321" t="n">
         <v>3</v>
@@ -22328,7 +22328,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22401,7 +22401,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22539,7 +22539,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22681,7 +22681,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22750,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22823,7 +22823,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22892,7 +22892,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23034,7 +23034,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23107,7 +23107,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23176,7 +23176,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23314,7 +23314,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23377,7 +23377,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23442,7 +23442,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23507,7 +23507,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23580,7 +23580,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23647,7 +23647,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23720,7 +23720,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23866,7 +23866,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23929,7 +23929,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -23998,7 +23998,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24213,7 +24213,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24278,7 +24278,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24493,7 +24493,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24562,7 +24562,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24631,7 +24631,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24704,7 +24704,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24773,7 +24773,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24842,7 +24842,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25126,7 +25126,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25268,7 +25268,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25337,7 +25337,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25386,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25407,10 +25407,10 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E366" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25601,7 +25601,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25622,10 +25622,10 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E369" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25747,7 +25747,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25820,7 +25820,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25889,7 +25889,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -25958,7 +25958,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26027,7 +26027,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26246,7 +26246,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26319,7 +26319,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26384,7 +26384,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26449,7 +26449,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26522,7 +26522,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26668,7 +26668,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26741,7 +26741,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26814,7 +26814,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26887,7 +26887,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -26960,7 +26960,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27033,7 +27033,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27106,7 +27106,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27248,7 +27248,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27394,7 +27394,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27467,7 +27467,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27613,7 +27613,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27755,7 +27755,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -27968,7 +27968,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28179,7 +28179,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28226,7 +28226,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28372,7 +28372,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28437,7 +28437,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28510,7 +28510,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28656,7 +28656,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28794,7 +28794,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28867,7 +28867,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28940,7 +28940,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -28961,7 +28961,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E416" t="n">
         <v>3.5</v>
@@ -29013,7 +29013,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29082,7 +29082,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29147,7 +29147,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29293,7 +29293,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29366,7 +29366,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29419,7 +29419,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29492,7 +29492,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29557,7 +29557,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29578,10 +29578,10 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E425" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29701,7 +29701,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29774,7 +29774,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29847,7 +29847,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29916,7 +29916,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -29981,7 +29981,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30123,7 +30123,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30188,7 +30188,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30261,7 +30261,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30330,7 +30330,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30470,7 +30470,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30760,7 +30760,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30904,7 +30904,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -30977,7 +30977,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31046,7 +31046,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31188,7 +31188,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31261,7 +31261,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31330,7 +31330,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31403,7 +31403,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31545,7 +31545,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31671,7 +31671,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31890,7 +31890,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -31910,9 +31910,11 @@
           <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/betty-bossi-sous-vide-kartoffeln-geschaelt/p/6862506</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr"/>
+      <c r="D458" t="n">
+        <v>2</v>
+      </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -31961,7 +31963,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32034,7 +32036,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32099,7 +32101,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32168,7 +32170,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32241,7 +32243,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32314,7 +32316,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32383,7 +32385,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32456,7 +32458,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32525,7 +32527,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32592,7 +32594,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32613,10 +32615,10 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E468" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -32665,7 +32667,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32730,7 +32732,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32781,7 +32783,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32848,7 +32850,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32913,7 +32915,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -32982,7 +32984,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33051,7 +33053,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33116,7 +33118,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33181,7 +33183,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33246,7 +33248,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33319,7 +33321,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33384,7 +33386,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33451,7 +33453,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33520,7 +33522,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33593,7 +33595,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33662,7 +33664,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33735,7 +33737,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33806,7 +33808,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33879,7 +33881,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -33948,7 +33950,7 @@
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34021,7 +34023,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34042,10 +34044,10 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E489" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -34094,7 +34096,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34115,10 +34117,10 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E490" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -34167,7 +34169,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34240,7 +34242,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34303,7 +34305,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34376,7 +34378,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34439,7 +34441,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34496,7 +34498,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34569,7 +34571,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34642,7 +34644,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34715,7 +34717,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34780,7 +34782,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34845,7 +34847,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34912,7 +34914,7 @@
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -34985,7 +34987,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35056,7 +35058,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35129,7 +35131,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35202,7 +35204,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35275,7 +35277,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35348,7 +35350,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35419,7 +35421,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35492,7 +35494,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35563,7 +35565,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35636,7 +35638,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35709,7 +35711,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35772,7 +35774,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35845,7 +35847,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35914,7 +35916,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -35987,7 +35989,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36060,7 +36062,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36129,7 +36131,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36200,7 +36202,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36269,7 +36271,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36340,7 +36342,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36403,7 +36405,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36468,7 +36470,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36535,7 +36537,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36606,7 +36608,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36677,7 +36679,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
@@ -36748,7 +36750,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-20 06:51:27</t>
+          <t>2023-01-20 12:58:30</t>
         </is>
       </c>
     </row>
